--- a/data/trans_bre/P59A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P59A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>109,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,48%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 7,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 7,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,87; 11,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 7,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,42; 193,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,88; 126,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,89; 241,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,94; 278,75</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,64%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 9,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 14,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,08; 5,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,52; 8,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,36; 45,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,97; 70,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,33; 19,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,39; 33,52</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,12%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,71; 9,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,65; 20,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,63; 12,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,42; 10,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,13; 128,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,66; 115,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,36; 61,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,62; 45,56</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,83</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,84</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,98%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,94; -8,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,26; -0,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,28; 4,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 9,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -55,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,42; 5,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,5; 51,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,09; 110,54</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,03%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,46%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,48%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,76%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,85; -2,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,5; 7,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,36; -2,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,4; 0,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,27; -1,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,09; 137,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,6; -16,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,82; 8,26</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,48%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-7,25; -0,78</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 1,52</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-8,09; -1,19</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-9,07; -3,17</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,62; 346,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 70,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,71; -62,8</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,4%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,94%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,01; -0,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,86; 2,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,09; -0,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,52; -0,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,84; -6,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,19; 15,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,59; -4,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,19; -0,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P59A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>41,48%</t>
+          <t>66,58%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 7,8</t>
+          <t>-1,76; 8,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-45,94; 278,75</t>
+          <t>-36,33; 342,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,64%</t>
+          <t>-19,47%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 8,22</t>
+          <t>-18,91; 4,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 33,52</t>
+          <t>-56,07; 15,05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>11,89%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 10,95</t>
+          <t>-5,56; 11,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 45,56</t>
+          <t>-16,51; 45,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>42,26%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 9,92</t>
+          <t>-1,01; 10,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 110,54</t>
+          <t>-8,0; 118,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-38,76%</t>
+          <t>-38,55%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 0,31</t>
+          <t>-10,41; 0,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-64,82; 8,26</t>
+          <t>-64,64; 7,65</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,22 +1120,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>-6,36</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,9</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-31,65%</t>
+          <t>-50,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-87,21%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-82,48%</t>
+          <t>-68,53%</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,25; -0,78</t>
+          <t>-9,83; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 1,52</t>
+          <t>-11,02; 2,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,09; -1,19</t>
+          <t>-14,12; -2,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,07; -3,17</t>
+          <t>-10,0; -1,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,24 +1193,24 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-91,62; 346,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 70,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-90,71; -62,8</t>
+          <t>-88,07; -22,95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-25,25%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,9%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-19,4%</t>
+          <t>-64,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-17,94%</t>
+          <t>-90,85%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-8,39; 0,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,37</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; 0,94</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-10,97; -2,4</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-97,57; -66,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-3,46</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-3,39</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-2,79</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-25,25%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-6,9%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-19,4%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-17,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-6,01; -0,77</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-3,86; 2,12</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-6,09; -0,69</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-5,52; -0,08</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 0,16</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-39,84; -6,04</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-23,19; 15,67</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-32,59; -4,23</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-31,19; -0,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-32,9; 0,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P59A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 7,99</t>
+          <t>0,44; 7,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 7,8</t>
+          <t>-0,66; 7,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 11,24</t>
+          <t>2,95; 11,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 8,95</t>
+          <t>-1,91; 8,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 193,54</t>
+          <t>2,43; 174,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 126,41</t>
+          <t>-9,03; 122,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,89; 241,19</t>
+          <t>28,8; 238,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-36,33; 342,23</t>
+          <t>-32,61; 361,22</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 9,65</t>
+          <t>-3,13; 11,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 14,12</t>
+          <t>1,07; 15,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 5,46</t>
+          <t>-8,45; 5,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,91; 4,11</t>
+          <t>-19,98; 4,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 45,51</t>
+          <t>-11,52; 53,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 70,8</t>
+          <t>4,08; 75,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 19,25</t>
+          <t>-23,41; 17,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,07; 15,05</t>
+          <t>-56,35; 15,81</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 9,31</t>
+          <t>-7,55; 8,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 20,47</t>
+          <t>-2,11; 20,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 12,31</t>
+          <t>-7,84; 10,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 11,18</t>
+          <t>-5,66; 11,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,13; 128,12</t>
+          <t>-49,16; 121,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 115,87</t>
+          <t>-8,54; 115,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 61,92</t>
+          <t>-26,84; 54,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 45,76</t>
+          <t>-16,54; 48,46</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,94; -8,75</t>
+          <t>-27,2; -8,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,26; -0,62</t>
+          <t>-19,99; -0,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 4,39</t>
+          <t>-8,83; 4,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 10,54</t>
+          <t>-0,88; 11,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -55,04</t>
+          <t>-100,0; -61,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-81,42; 5,04</t>
+          <t>-81,97; -0,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-58,5; 51,14</t>
+          <t>-56,67; 48,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 118,74</t>
+          <t>-6,6; 119,3</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,85; -2,05</t>
+          <t>-21,85; -1,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 7,77</t>
+          <t>-13,4; 9,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,36; -2,7</t>
+          <t>-20,58; -2,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 0,28</t>
+          <t>-11,14; 0,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-95,27; -1,72</t>
+          <t>-100,0; 0,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-72,09; 137,68</t>
+          <t>-68,04; 218,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-90,6; -16,82</t>
+          <t>-88,35; -20,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-64,64; 7,65</t>
+          <t>-67,17; 4,27</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 0,0</t>
+          <t>-12,33; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 2,67</t>
+          <t>-11,29; 2,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,12; -2,46</t>
+          <t>-14,16; -2,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,0; -1,37</t>
+          <t>-9,87; -1,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-88,07; -22,95</t>
+          <t>-88,16; -21,53</t>
         </is>
       </c>
     </row>
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 0,0</t>
+          <t>-8,93; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,37</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 0,94</t>
+          <t>-8,09; 0,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,97; -2,4</t>
+          <t>-11,79; -2,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-97,57; -66,19</t>
+          <t>-97,79; -69,34</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,01; -0,77</t>
+          <t>-6,06; -0,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 2,12</t>
+          <t>-3,75; 1,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,09; -0,69</t>
+          <t>-5,9; -0,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 0,16</t>
+          <t>-5,74; -0,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,84; -6,04</t>
+          <t>-39,67; -7,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 15,67</t>
+          <t>-21,95; 14,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-32,59; -4,23</t>
+          <t>-31,18; -4,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 0,96</t>
+          <t>-33,4; -0,59</t>
         </is>
       </c>
     </row>
